--- a/KUPX6BA4.xlsx
+++ b/KUPX6BA4.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="7">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t>Sport (KUPX6BA4)</t>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>14:30</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44934.0</v>
+        <v>46030.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -137,7 +134,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>1</v>
@@ -176,7 +173,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>1</v>
@@ -215,7 +212,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>1</v>
@@ -254,7 +251,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>1</v>
@@ -293,7 +290,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44969.0</v>
+        <v>46065.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>1</v>
@@ -332,7 +329,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>44976.0</v>
+        <v>46072.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>1</v>
@@ -371,7 +368,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>1</v>
@@ -410,7 +407,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>1</v>
@@ -449,7 +446,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>1</v>
@@ -488,7 +485,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>1</v>
@@ -503,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>2.0</v>
